--- a/Supplementary material3.xlsx
+++ b/Supplementary material3.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20145" windowHeight="12015"/>
+    <workbookView windowWidth="18350" windowHeight="17800" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet of Geochemical factor" sheetId="2" r:id="rId1"/>
+    <sheet name="微量" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -27,57 +27,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>sample number</t>
-  </si>
-  <si>
-    <t>Geochemical factor1</t>
-  </si>
-  <si>
-    <t>Geochemical factor2</t>
-  </si>
-  <si>
-    <t>Geochemical factor3</t>
-  </si>
-  <si>
-    <t>Geochemical factor4</t>
-  </si>
-  <si>
-    <t>Geochemical factor5</t>
-  </si>
-  <si>
-    <t>Geochemical factor6</t>
-  </si>
-  <si>
-    <t>Geochemical factor7</t>
-  </si>
-  <si>
-    <t>plot1-1</t>
-  </si>
-  <si>
-    <t>plot1-2</t>
-  </si>
-  <si>
-    <t>plot1-3</t>
-  </si>
-  <si>
-    <t>plot2-1</t>
-  </si>
-  <si>
-    <t>plot2-2</t>
-  </si>
-  <si>
-    <t>plot2-3</t>
-  </si>
-  <si>
-    <t>plot3-1</t>
-  </si>
-  <si>
-    <t>plot3-2</t>
-  </si>
-  <si>
-    <t>plot3-3</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>B/Ga</t>
+  </si>
+  <si>
+    <t>CaO/(MgO·Al2O3)</t>
+  </si>
+  <si>
+    <t>-(Al+Fe/Ca+Mg)</t>
+  </si>
+  <si>
+    <t>TOC/N</t>
+  </si>
+  <si>
+    <t>CIA</t>
+  </si>
+  <si>
+    <t>Cu/Zn</t>
+  </si>
+  <si>
+    <t>Beigou1</t>
+  </si>
+  <si>
+    <t>Beigou2</t>
+  </si>
+  <si>
+    <t>Beigou3</t>
+  </si>
+  <si>
+    <t>Donggou1</t>
+  </si>
+  <si>
+    <t>Donggou2</t>
+  </si>
+  <si>
+    <t>Donggou3</t>
+  </si>
+  <si>
+    <t>Donggouli1</t>
+  </si>
+  <si>
+    <t>Donggouli2</t>
+  </si>
+  <si>
+    <t>Donggouli3</t>
   </si>
 </sst>
 </file>
@@ -90,7 +87,14 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,18 +247,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -551,164 +549,154 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -761,7 +749,7 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -771,9 +759,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="WPS">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
-    <a:clrScheme name="WPS">
+    <a:clrScheme name="办公室">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -781,39 +769,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4874CB"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EE822F"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="F2BA02"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="75BD42"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="30C0B4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="E54C5E"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0026E5"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="7E1FAD"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="WPS">
+    <a:fontScheme name="办公室">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -883,433 +871,455 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="WPS">
+    <a:fmtScheme name="办公室">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumOff val="17500"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
-              <a:schemeClr val="phClr"/>
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="2700000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:hueOff val="-2520000"/>
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
-              <a:schemeClr val="phClr"/>
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="2700000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:gradFill>
-            <a:gsLst>
-              <a:gs pos="0">
-                <a:schemeClr val="phClr">
-                  <a:hueOff val="-4200000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="100000">
-                <a:schemeClr val="phClr"/>
-              </a:gs>
-            </a:gsLst>
-            <a:lin ang="2700000" scaled="1"/>
-          </a:gradFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="101600" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:schemeClr val="phClr">
-                <a:alpha val="60000"/>
-              </a:schemeClr>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:reflection stA="50000" endA="300" endPos="40000" dist="25400" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
           </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
-  <cols>
-    <col min="1" max="1" width="17.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="28.75" customWidth="1"/>
-    <col min="8" max="8" width="30.25" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="15" outlineLevelCol="6"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
+      <c r="B2">
+        <v>1.72008288436503</v>
+      </c>
+      <c r="C2">
+        <v>0.269708287384084</v>
+      </c>
+      <c r="D2">
+        <v>-17.304457674291</v>
+      </c>
+      <c r="E2">
+        <v>1.66666666666667</v>
+      </c>
+      <c r="F2">
+        <v>52.1659761657244</v>
+      </c>
+      <c r="G2">
+        <v>0.878234570108316</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1">
-        <v>0.0502775850104094</v>
-      </c>
-      <c r="C2" s="1">
-        <v>2.08501208702659</v>
-      </c>
-      <c r="D2">
-        <v>6.381</v>
-      </c>
-      <c r="E2" s="1">
-        <v>8.21589130434783</v>
-      </c>
-      <c r="F2" s="1">
-        <v>12.2580547526446</v>
-      </c>
-      <c r="G2">
-        <v>0.1035</v>
-      </c>
-      <c r="H2">
-        <f t="shared" ref="H2:H10" si="0">6*G2</f>
-        <v>0.621</v>
+      <c r="B3">
+        <v>2.22268805500514</v>
+      </c>
+      <c r="C3">
+        <v>0.274280455065599</v>
+      </c>
+      <c r="D3">
+        <v>-13.7658151727971</v>
+      </c>
+      <c r="E3">
+        <v>2.8</v>
+      </c>
+      <c r="F3">
+        <v>51.2224253521645</v>
+      </c>
+      <c r="G3">
+        <v>0.911997606748569</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1">
-        <v>0.0449626416003856</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1.88177863975296</v>
-      </c>
-      <c r="D3">
-        <v>6.57</v>
-      </c>
-      <c r="E3" s="1">
-        <v>8.25324277673546</v>
-      </c>
-      <c r="F3" s="1">
-        <v>7.62596972207577</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="B4">
+        <v>1.75269949717678</v>
+      </c>
+      <c r="C4">
+        <v>0.297151534415946</v>
+      </c>
+      <c r="D4">
+        <v>-16.0546419767986</v>
+      </c>
+      <c r="E4">
+        <v>1.6</v>
+      </c>
+      <c r="F4">
+        <v>52.587209521211</v>
+      </c>
+      <c r="G4">
+        <v>0.855375754845857</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1">
-        <v>0.120648387096774</v>
-      </c>
-      <c r="C4" s="1">
-        <v>6.6020778690145</v>
-      </c>
-      <c r="D4">
-        <v>6.248</v>
-      </c>
-      <c r="E4" s="1">
-        <v>8.26712495621716</v>
-      </c>
-      <c r="F4" s="1">
-        <v>8.96042479050859</v>
-      </c>
-      <c r="G4">
-        <v>2.079</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="0"/>
-        <v>12.474</v>
+      <c r="B5">
+        <v>3.31605787476281</v>
+      </c>
+      <c r="C5">
+        <v>0.17478330881522</v>
+      </c>
+      <c r="D5">
+        <v>-10.7853996174148</v>
+      </c>
+      <c r="E5">
+        <v>9.8</v>
+      </c>
+      <c r="F5">
+        <v>49.3172592594024</v>
+      </c>
+      <c r="G5">
+        <v>0.648469332564093</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1">
-        <v>0.309145014719058</v>
-      </c>
-      <c r="C5" s="1">
-        <v>8.56560551296817</v>
-      </c>
-      <c r="D5">
-        <v>12.865</v>
-      </c>
-      <c r="E5" s="1">
-        <v>21.7195737306172</v>
-      </c>
-      <c r="F5" s="1">
-        <v>8.6203560371517</v>
-      </c>
-      <c r="G5">
-        <v>0.1125</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="0"/>
-        <v>0.675</v>
+      <c r="B6">
+        <v>2.84972568096154</v>
+      </c>
+      <c r="C6">
+        <v>0.211190815080091</v>
+      </c>
+      <c r="D6">
+        <v>-9.34981723927956</v>
+      </c>
+      <c r="E6">
+        <v>7</v>
+      </c>
+      <c r="F6">
+        <v>47.0622553099462</v>
+      </c>
+      <c r="G6">
+        <v>0.532963780229213</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1">
-        <v>0.0914101290963257</v>
-      </c>
-      <c r="C6" s="1">
-        <v>3.98507390317027</v>
-      </c>
-      <c r="D6">
-        <v>7.279</v>
-      </c>
-      <c r="E6" s="1">
-        <v>7.30953389121339</v>
-      </c>
-      <c r="F6" s="1">
-        <v>19.8148357231568</v>
-      </c>
-      <c r="G6">
-        <v>0.045</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="0"/>
-        <v>0.27</v>
+      <c r="B7">
+        <v>3.70165725842324</v>
+      </c>
+      <c r="C7">
+        <v>0.125126271753584</v>
+      </c>
+      <c r="D7">
+        <v>-14.4215019439647</v>
+      </c>
+      <c r="E7">
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <v>51.3745483023682</v>
+      </c>
+      <c r="G7">
+        <v>0.943772381208146</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="1">
-        <v>0.0608369098712446</v>
-      </c>
-      <c r="C7" s="1">
-        <v>5.5823709852039</v>
-      </c>
-      <c r="D7">
-        <v>7.774</v>
-      </c>
-      <c r="E7" s="1">
-        <v>8.11249361393324</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1.45044319097502</v>
-      </c>
-      <c r="G7">
-        <v>0.054</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="0"/>
-        <v>0.324</v>
+      <c r="B8">
+        <v>1.97684536298456</v>
+      </c>
+      <c r="C8">
+        <v>0.12756636334768</v>
+      </c>
+      <c r="D8">
+        <v>-14.4538304114966</v>
+      </c>
+      <c r="E8">
+        <v>7.8</v>
+      </c>
+      <c r="F8">
+        <v>52.2049477981395</v>
+      </c>
+      <c r="G8">
+        <v>0.95614504945852</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="1">
-        <v>0.131808666527109</v>
-      </c>
-      <c r="C8" s="1">
-        <v>3.08463455339385</v>
-      </c>
-      <c r="D8">
-        <v>10.252</v>
-      </c>
-      <c r="E8" s="1">
-        <v>10.1866024810476</v>
-      </c>
-      <c r="F8" s="1">
-        <v>12.0837254136926</v>
-      </c>
-      <c r="G8">
-        <v>0.144</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="0"/>
-        <v>0.864</v>
+      <c r="B9">
+        <v>1.89914448669202</v>
+      </c>
+      <c r="C9">
+        <v>0.138037806103524</v>
+      </c>
+      <c r="D9">
+        <v>-15.7930812991619</v>
+      </c>
+      <c r="E9">
+        <v>7.8</v>
+      </c>
+      <c r="F9">
+        <v>53.7726901792429</v>
+      </c>
+      <c r="G9">
+        <v>0.949934268185802</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="1">
-        <v>0.0663046924540266</v>
-      </c>
-      <c r="C9" s="1">
-        <v>4.2162978435136</v>
-      </c>
-      <c r="D9">
-        <v>6.252</v>
-      </c>
-      <c r="E9" s="1">
-        <v>7.63447319391635</v>
-      </c>
-      <c r="F9" s="1">
-        <v>13.0916496286659</v>
-      </c>
-      <c r="G9">
-        <v>0.2385</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="0"/>
-        <v>1.431</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="1">
-        <v>0.103041219839142</v>
-      </c>
-      <c r="C10" s="1">
-        <v>2.50743048076448</v>
+      <c r="B10">
+        <v>1.98587235724165</v>
+      </c>
+      <c r="C10">
+        <v>0.113286865593524</v>
       </c>
       <c r="D10">
-        <v>15.457</v>
-      </c>
-      <c r="E10" s="1">
-        <v>14.4224021912351</v>
-      </c>
-      <c r="F10" s="1">
-        <v>2.46604432029653</v>
+        <v>-17.4978087907813</v>
+      </c>
+      <c r="E10">
+        <v>7.6</v>
+      </c>
+      <c r="F10">
+        <v>54.9478921108329</v>
       </c>
       <c r="G10">
-        <v>0.1485</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="0"/>
-        <v>0.891</v>
+        <v>0.908190016778524</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>